--- a/data/users.xlsx
+++ b/data/users.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>User ID</t>
   </si>
@@ -39,6 +39,30 @@
   </si>
   <si>
     <t>2025-11-13</t>
+  </si>
+  <si>
+    <t>USER1763101591861</t>
+  </si>
+  <si>
+    <t>user1</t>
+  </si>
+  <si>
+    <t>2025-11-14</t>
+  </si>
+  <si>
+    <t>USER1763534285230</t>
+  </si>
+  <si>
+    <t>Aryan</t>
+  </si>
+  <si>
+    <t>Aryan123</t>
+  </si>
+  <si>
+    <t>9090909090</t>
+  </si>
+  <si>
+    <t>2025-11-19</t>
   </si>
 </sst>
 </file>
@@ -83,7 +107,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -91,7 +115,7 @@
   <cols>
     <col min="1" max="1" width="18.13671875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="9.17578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.61328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.6328125" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="14.19921875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="14.8671875" customWidth="true" bestFit="true"/>
   </cols>
@@ -130,6 +154,40 @@
         <v>8</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/data/users.xlsx
+++ b/data/users.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
   <si>
     <t>User ID</t>
   </si>
@@ -29,40 +29,379 @@
     <t>Registration Date</t>
   </si>
   <si>
-    <t>USER1763055749892</t>
-  </si>
-  <si>
-    <t>Alpha</t>
-  </si>
-  <si>
-    <t>0000000000</t>
-  </si>
-  <si>
-    <t>2025-11-13</t>
-  </si>
-  <si>
-    <t>USER1763101591861</t>
-  </si>
-  <si>
-    <t>user1</t>
-  </si>
-  <si>
-    <t>2025-11-14</t>
-  </si>
-  <si>
-    <t>USER1763534285230</t>
-  </si>
-  <si>
-    <t>Aryan</t>
-  </si>
-  <si>
-    <t>Aryan123</t>
-  </si>
-  <si>
-    <t>9090909090</t>
-  </si>
-  <si>
-    <t>2025-11-19</t>
+    <t>USR001</t>
+  </si>
+  <si>
+    <t>User1</t>
+  </si>
+  <si>
+    <t>pass1</t>
+  </si>
+  <si>
+    <t>9800001234</t>
+  </si>
+  <si>
+    <t>2025-01-2</t>
+  </si>
+  <si>
+    <t>USR002</t>
+  </si>
+  <si>
+    <t>User2</t>
+  </si>
+  <si>
+    <t>pass2</t>
+  </si>
+  <si>
+    <t>9800002468</t>
+  </si>
+  <si>
+    <t>2025-01-3</t>
+  </si>
+  <si>
+    <t>USR003</t>
+  </si>
+  <si>
+    <t>User3</t>
+  </si>
+  <si>
+    <t>pass3</t>
+  </si>
+  <si>
+    <t>9800003702</t>
+  </si>
+  <si>
+    <t>2025-01-4</t>
+  </si>
+  <si>
+    <t>USR004</t>
+  </si>
+  <si>
+    <t>User4</t>
+  </si>
+  <si>
+    <t>pass4</t>
+  </si>
+  <si>
+    <t>9800004936</t>
+  </si>
+  <si>
+    <t>2025-01-5</t>
+  </si>
+  <si>
+    <t>USR005</t>
+  </si>
+  <si>
+    <t>User5</t>
+  </si>
+  <si>
+    <t>pass5</t>
+  </si>
+  <si>
+    <t>9800006170</t>
+  </si>
+  <si>
+    <t>2025-01-6</t>
+  </si>
+  <si>
+    <t>USR006</t>
+  </si>
+  <si>
+    <t>User6</t>
+  </si>
+  <si>
+    <t>pass6</t>
+  </si>
+  <si>
+    <t>9800007404</t>
+  </si>
+  <si>
+    <t>2025-01-7</t>
+  </si>
+  <si>
+    <t>USR007</t>
+  </si>
+  <si>
+    <t>User7</t>
+  </si>
+  <si>
+    <t>pass7</t>
+  </si>
+  <si>
+    <t>9800008638</t>
+  </si>
+  <si>
+    <t>2025-01-8</t>
+  </si>
+  <si>
+    <t>USR008</t>
+  </si>
+  <si>
+    <t>User8</t>
+  </si>
+  <si>
+    <t>pass8</t>
+  </si>
+  <si>
+    <t>9800009872</t>
+  </si>
+  <si>
+    <t>2025-01-9</t>
+  </si>
+  <si>
+    <t>USR009</t>
+  </si>
+  <si>
+    <t>User9</t>
+  </si>
+  <si>
+    <t>pass9</t>
+  </si>
+  <si>
+    <t>9800011106</t>
+  </si>
+  <si>
+    <t>2025-01-10</t>
+  </si>
+  <si>
+    <t>USR010</t>
+  </si>
+  <si>
+    <t>User10</t>
+  </si>
+  <si>
+    <t>pass10</t>
+  </si>
+  <si>
+    <t>9800012340</t>
+  </si>
+  <si>
+    <t>2025-01-11</t>
+  </si>
+  <si>
+    <t>USR011</t>
+  </si>
+  <si>
+    <t>User11</t>
+  </si>
+  <si>
+    <t>pass11</t>
+  </si>
+  <si>
+    <t>9800013574</t>
+  </si>
+  <si>
+    <t>2025-01-12</t>
+  </si>
+  <si>
+    <t>USR012</t>
+  </si>
+  <si>
+    <t>User12</t>
+  </si>
+  <si>
+    <t>pass12</t>
+  </si>
+  <si>
+    <t>9800014808</t>
+  </si>
+  <si>
+    <t>2025-01-13</t>
+  </si>
+  <si>
+    <t>USR013</t>
+  </si>
+  <si>
+    <t>User13</t>
+  </si>
+  <si>
+    <t>pass13</t>
+  </si>
+  <si>
+    <t>9800016042</t>
+  </si>
+  <si>
+    <t>2025-01-14</t>
+  </si>
+  <si>
+    <t>USR014</t>
+  </si>
+  <si>
+    <t>User14</t>
+  </si>
+  <si>
+    <t>pass14</t>
+  </si>
+  <si>
+    <t>9800017276</t>
+  </si>
+  <si>
+    <t>2025-01-15</t>
+  </si>
+  <si>
+    <t>USR015</t>
+  </si>
+  <si>
+    <t>User15</t>
+  </si>
+  <si>
+    <t>pass15</t>
+  </si>
+  <si>
+    <t>9800018510</t>
+  </si>
+  <si>
+    <t>2025-01-16</t>
+  </si>
+  <si>
+    <t>USR016</t>
+  </si>
+  <si>
+    <t>User16</t>
+  </si>
+  <si>
+    <t>pass16</t>
+  </si>
+  <si>
+    <t>9800019744</t>
+  </si>
+  <si>
+    <t>2025-01-17</t>
+  </si>
+  <si>
+    <t>USR017</t>
+  </si>
+  <si>
+    <t>User17</t>
+  </si>
+  <si>
+    <t>pass17</t>
+  </si>
+  <si>
+    <t>9800020978</t>
+  </si>
+  <si>
+    <t>2025-01-18</t>
+  </si>
+  <si>
+    <t>USR018</t>
+  </si>
+  <si>
+    <t>User18</t>
+  </si>
+  <si>
+    <t>pass18</t>
+  </si>
+  <si>
+    <t>9800022212</t>
+  </si>
+  <si>
+    <t>2025-01-19</t>
+  </si>
+  <si>
+    <t>USR019</t>
+  </si>
+  <si>
+    <t>User19</t>
+  </si>
+  <si>
+    <t>pass19</t>
+  </si>
+  <si>
+    <t>9800023446</t>
+  </si>
+  <si>
+    <t>2025-01-20</t>
+  </si>
+  <si>
+    <t>USR020</t>
+  </si>
+  <si>
+    <t>User20</t>
+  </si>
+  <si>
+    <t>pass20</t>
+  </si>
+  <si>
+    <t>9800024680</t>
+  </si>
+  <si>
+    <t>2025-01-21</t>
+  </si>
+  <si>
+    <t>USR021</t>
+  </si>
+  <si>
+    <t>User21</t>
+  </si>
+  <si>
+    <t>pass21</t>
+  </si>
+  <si>
+    <t>9800025914</t>
+  </si>
+  <si>
+    <t>2025-01-22</t>
+  </si>
+  <si>
+    <t>USR022</t>
+  </si>
+  <si>
+    <t>User22</t>
+  </si>
+  <si>
+    <t>pass22</t>
+  </si>
+  <si>
+    <t>9800027148</t>
+  </si>
+  <si>
+    <t>2025-01-23</t>
+  </si>
+  <si>
+    <t>USR023</t>
+  </si>
+  <si>
+    <t>User23</t>
+  </si>
+  <si>
+    <t>pass23</t>
+  </si>
+  <si>
+    <t>9800028382</t>
+  </si>
+  <si>
+    <t>2025-01-24</t>
+  </si>
+  <si>
+    <t>USR024</t>
+  </si>
+  <si>
+    <t>User24</t>
+  </si>
+  <si>
+    <t>pass24</t>
+  </si>
+  <si>
+    <t>9800029616</t>
+  </si>
+  <si>
+    <t>2025-01-25</t>
+  </si>
+  <si>
+    <t>USR025</t>
+  </si>
+  <si>
+    <t>User25</t>
+  </si>
+  <si>
+    <t>pass25</t>
+  </si>
+  <si>
+    <t>9800030850</t>
+  </si>
+  <si>
+    <t>2025-01-26</t>
   </si>
 </sst>
 </file>
@@ -107,15 +446,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="18.13671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="7.17578125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="9.17578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.6328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.61328125" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="14.19921875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="14.8671875" customWidth="true" bestFit="true"/>
   </cols>
@@ -145,47 +484,421 @@
         <v>6</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>16</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="E24" t="s" s="0">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="E26" t="s" s="0">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
